--- a/ProjectSchema/rtbSchema.xlsx
+++ b/ProjectSchema/rtbSchema.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atebal Kant Singh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atebal Kant Singh\DjangoWorkspace\canteen\ProjectSchema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF70D49-5520-41E2-B9D7-ADC7E307D2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1ED7BD7-4E36-4CBD-99F0-5271D7F3F1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{425E41E4-B678-41BD-80BC-54B9EBB65333}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{425E41E4-B678-41BD-80BC-54B9EBB65333}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RolesandPermissions" sheetId="2" r:id="rId2"/>
+    <sheet name="permissions" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
   <si>
     <t>UsrName</t>
   </si>
@@ -157,13 +159,148 @@
   </si>
   <si>
     <t>totalquantities</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Permission</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>CMSAdmin</t>
+  </si>
+  <si>
+    <t>CMSEmployee</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>AddressTable</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Objects</t>
+  </si>
+  <si>
+    <t>add_employee</t>
+  </si>
+  <si>
+    <t>change_employee</t>
+  </si>
+  <si>
+    <t>delete_employee</t>
+  </si>
+  <si>
+    <t>view_employee</t>
+  </si>
+  <si>
+    <t>add_item</t>
+  </si>
+  <si>
+    <t>change_item</t>
+  </si>
+  <si>
+    <t>delete_item</t>
+  </si>
+  <si>
+    <t>view_item</t>
+  </si>
+  <si>
+    <t>add_employeeorderhistory</t>
+  </si>
+  <si>
+    <t>change_employeeorderhistory</t>
+  </si>
+  <si>
+    <t>delete_employeeorderhistory</t>
+  </si>
+  <si>
+    <t>view_employeeorderhistory</t>
+  </si>
+  <si>
+    <t>add_payment</t>
+  </si>
+  <si>
+    <t>change_payment</t>
+  </si>
+  <si>
+    <t>delete_payment</t>
+  </si>
+  <si>
+    <t>view_payment</t>
+  </si>
+  <si>
+    <t>add_addresstable</t>
+  </si>
+  <si>
+    <t>change_addresstable</t>
+  </si>
+  <si>
+    <t>delete_addresstable</t>
+  </si>
+  <si>
+    <t>view_addresstable</t>
+  </si>
+  <si>
+    <t>add_transactions</t>
+  </si>
+  <si>
+    <t>change_transactions</t>
+  </si>
+  <si>
+    <t>delete_transactions</t>
+  </si>
+  <si>
+    <t>view_transactions</t>
+  </si>
+  <si>
+    <t>add_orders</t>
+  </si>
+  <si>
+    <t>change_orders</t>
+  </si>
+  <si>
+    <t>delete_orders</t>
+  </si>
+  <si>
+    <t>view_orders</t>
+  </si>
+  <si>
+    <t>add_user</t>
+  </si>
+  <si>
+    <t>change_user</t>
+  </si>
+  <si>
+    <t>delete_user</t>
+  </si>
+  <si>
+    <t>view_user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +308,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,8 +328,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -194,20 +355,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFCC66"/>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -645,6 +832,3348 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>216000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Graphic 2" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60B88642-023E-A958-FA96-AC4D753DC631}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>216000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Graphic 3" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B585E593-3CCE-4E35-9C7C-6227F21DEA5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="1097280"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Graphic 4" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05460E54-674E-456E-9675-906F15D274EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Graphic 5" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E6C8C3-572C-47B6-8C80-BBDB0743BDAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="1097280"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Graphic 6" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1807D587-C953-486F-8FA2-935C2F8D11C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Graphic 7" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2BA391-247C-4C6C-87FD-B682742F18DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="1097280"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Graphic 8" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D398E8-F3B0-4501-9B8B-11F6979F1008}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="1097280"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Graphic 9" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7048172-7AF5-42C4-9177-9F128A13BB26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Graphic 10" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD9AA97-34C6-43ED-A448-DD8B2B946BC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="1097280"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Graphic 11" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B10A01A8-7731-4DC0-B0BE-7C3C066672C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="1097280"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Graphic 12" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EEDBB8D-9AEB-4A8A-A3FA-B205E598E986}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Graphic 13" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F702E0A-F225-4C15-9BB6-EA39D97CF440}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="1097280"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Graphic 14" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80845716-EB30-47C8-98B8-CEACC6F2127E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="1097280"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Graphic 15" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C83BDF-EC1A-41B8-958A-BB45D9408A47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Graphic 16" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE99E7D-AA58-4517-AAD6-1D2F7C9BFA56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="1097280"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Graphic 17" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{153C299A-425B-4856-B789-10D775899B5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="1097280"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>216000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Graphic 18" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E107703-EE0D-48D8-8891-F0BE59DEAA75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="2560320"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Graphic 19" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51A4386-8687-4FCC-9CA6-38A7247DE438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="2560320"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Graphic 20" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68CDC74F-BEF0-470E-AAC3-5867E1CC0247}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="2560320"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Graphic 21" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C5C4E5-D8A0-4564-AD0E-924B3E7C0F44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="2560320"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Graphic 22" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4475569-92E2-43AC-A61F-90FDEFA0ABAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="2560320"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Graphic 23" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8ED0BE-E623-4BDD-A2AB-637B017495B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="2560320"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Graphic 24" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B52F2B-D417-4199-8291-1CE7FFD07B96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="2560320"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>216000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Graphic 25" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935CCA76-6C3B-4E20-B037-D92DDDCF81BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Graphic 26" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A08DA1F-7EF8-4511-B369-276096EF28AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Graphic 27" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8273B1EE-8A1C-4278-97A6-4FD5BD4D282C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Graphic 28" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10F9C672-9B1A-4D4A-AD41-C0FD1ECBA4DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Graphic 29" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9469EAF3-9DED-4439-8BE3-C9156AD44065}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Graphic 30" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B5351F-4007-45EE-884A-0108CDCC9240}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Graphic 31" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77FAC499-2BFD-4D30-A25E-27B954CD7FB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Graphic 32" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB120F4-3580-4ED2-BAC7-BB4866EB77A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="2560320"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Graphic 33" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A3BBF5-9DDB-484B-9CCA-B94B3695E932}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="2560320"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Graphic 34" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0613CE1E-9759-421C-AA97-7B192CB67FBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="2560320"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Graphic 35" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413BF384-5626-4CCF-9607-0E53C89C326B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="2560320"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Graphic 36" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B654B40-3A8D-44D9-A7CB-9751A3F926C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="2560320"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Graphic 37" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51A1F580-8012-4FE2-B719-D77782E20FC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="2560320"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Graphic 38" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E2DFDB-347F-40E9-8006-672D556D1525}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="2560320"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Graphic 39" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6BCA45-9299-4343-BC82-4EA2FD8DF4A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3764280" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Graphic 40" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226AAB72-AC7C-4098-9378-D57376468627}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4373880" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Graphic 41" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA53159-5362-4E0D-B8A2-345D97A70F95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3764280" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Graphic 42" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00831081-FC55-461F-9294-135FADB55E10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3764280" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Graphic 43" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7BE4E2E-D948-4FD1-BB0F-7CC6D1DC1196}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3764280" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Graphic 44" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182FF542-0280-4560-BDE9-A6E2FFCDAE35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3764280" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Graphic 45" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE4CDDB-F412-4664-8ACB-91D31BECEC15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3764280" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Graphic 46" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B25512F3-2D58-455E-8D96-04AC2E5EF9B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3764280" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Graphic 47" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34D0B99-82C1-49EE-B132-65336F66DF39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4373880" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Graphic 48" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9135839C-727F-4045-BE3F-0A5A6B5C098C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4373880" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Graphic 49" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EC48426-4E39-4B24-806F-294DA6827764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4373880" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Graphic 50" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5BA2B0B-EEF2-418C-AC2B-48F8B26DFDC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4373880" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Graphic 51" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A13869-32BE-4119-A6B2-3F3925FBF1E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4373880" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Graphic 52" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{988CE7E0-330A-489F-A478-40CCA96F7149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4373880" y="914400"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Graphic 53" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9407622F-52D4-4B7B-B0C0-4A05C86077CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4373880" y="2560320"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Graphic 57" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4435E77-EC42-496B-B5F0-C2E35B1F35BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4373880" y="2560320"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Graphic 59" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46025BED-B40D-477F-A169-0684FA2391A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4373880" y="2560320"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Graphic 60" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F26E4A4C-611B-48DE-9641-0E0BA192D973}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3764280" y="3657600"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>216000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Graphic 62" descr="Close">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8246BBE6-62B7-208A-36F2-3F99689B7030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3764280" y="2560320"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Graphic 63" descr="Close">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C473752-054C-47CD-B2A7-04EB527FB23F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3764280" y="2560320"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Graphic 64" descr="Close">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B082FFBB-48AE-414C-8017-E8E467D220A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3764280" y="2560320"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Graphic 65" descr="Close">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F72F840-3249-4020-808B-F43DAB4D42A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3764280" y="2560320"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Graphic 66" descr="Close">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{593893DF-C003-4459-B6B8-4A3283432B07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3764280" y="2560320"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Graphic 67" descr="Close">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71B2D84-DF1A-47B5-9627-E68DFEC2C583}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3764280" y="2560320"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Graphic 68" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E80D8B-662B-4FC1-9B75-053C739207B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="3474720"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Graphic 69" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6412E63-6C09-4353-B366-5A2D25825FE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="3657600"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Graphic 71" descr="Close">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B94D05E-5A50-4F47-BE34-792C8752A968}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3764280" y="3474720"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Graphic 74" descr="Close">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{358D1392-0419-42E7-8052-E4484414868A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4373880" y="3840480"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Graphic 75" descr="Close">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A425DF-FE75-45D6-B0FA-8C67040A78E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4434840" y="3108960"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Graphic 76" descr="Close">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518FD566-5288-455C-8CA8-34A08EEAD39E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4434840" y="3474720"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Graphic 77" descr="Close">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5AF809A-E503-4519-9979-B6F328AEF52D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4434840" y="2743200"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="216000" cy="216000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Graphic 78" descr="Close">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B38414-8991-4F27-BE85-4010E60952E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4434840" y="2926080"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -947,206 +4476,199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E301B84-46E7-47CC-9617-7238C6FEF355}">
   <dimension ref="B6:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="11.33203125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="14" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="1"/>
-    <col min="17" max="17" width="11.21875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="1"/>
-    <col min="20" max="20" width="5.77734375" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" customWidth="1"/>
+    <col min="17" max="17" width="11.21875" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" customWidth="1"/>
+    <col min="20" max="20" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="N6" s="1" t="s">
+      <c r="N6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="P18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="Q18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="R18" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="Q23" s="1" t="s">
+      <c r="Q23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="N24" s="2" t="s">
+      <c r="N24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="O24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="P24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="Q24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="R24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S24" s="2" t="s">
+      <c r="S24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T24" s="2" t="s">
+      <c r="T24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U24" s="2" t="s">
+      <c r="U24" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1155,4 +4677,463 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BD316C-80E7-49AB-A8D7-D8AB10DDD2DE}">
+  <dimension ref="A2:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52186E8C-6B05-40A2-925A-7780BD9DCA2E}">
+  <dimension ref="A5:C36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ProjectSchema/rtbSchema.xlsx
+++ b/ProjectSchema/rtbSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atebal Kant Singh\DjangoWorkspace\canteen\ProjectSchema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1ED7BD7-4E36-4CBD-99F0-5271D7F3F1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B494FD-FCC1-43E2-B466-293A694FDD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{425E41E4-B678-41BD-80BC-54B9EBB65333}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
   <si>
     <t>UsrName</t>
   </si>
@@ -368,19 +368,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4695,223 +4694,124 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="8" t="s">
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="8" t="s">
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="8" t="s">
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="8" t="s">
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="8" t="s">
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="8" t="s">
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4928,7 +4828,7 @@
   <dimension ref="A5:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5047,6 +4947,9 @@
       <c r="A19" t="s">
         <v>71</v>
       </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
